--- a/SalesAutomation/BaseData/Product_master_data_190320.xlsx
+++ b/SalesAutomation/BaseData/Product_master_data_190320.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\database\SalesAutomation\BaseData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794A9140-600F-4725-B79E-628DEE70DCD5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB14012E-8D13-45CA-9F03-5D4FA5123341}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="475">
   <si>
     <t>Megnevezés angol (teljes !)</t>
   </si>
@@ -1124,9 +1124,6 @@
   </si>
   <si>
     <t>XONE PURE FARMING 2018</t>
-  </si>
-  <si>
-    <t>PS4 UNTIL DAWN PS HITS</t>
   </si>
   <si>
     <t>PC CALL OF DUTY BLACK OPS 2</t>
@@ -1663,7 +1660,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="user" refreshedDate="43636.872523495367" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="245" xr:uid="{FBA94C2B-4A72-4FEF-80FB-30FA7C67AB50}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A2:AI247" sheet="new"/>
+    <worksheetSource ref="A2:AI246" sheet="new"/>
   </cacheSource>
   <cacheFields count="35">
     <cacheField name="EAN*" numFmtId="1">
@@ -10860,7 +10857,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6BBCAFCF-BB04-4BC6-86AA-835DFE1714D3}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6BBCAFCF-BB04-4BC6-86AA-835DFE1714D3}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="35">
     <pivotField numFmtId="1" showAll="0"/>
@@ -11250,17 +11247,17 @@
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
@@ -11275,12 +11272,12 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
@@ -11295,7 +11292,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -11305,11 +11302,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI247"/>
+  <dimension ref="A1:AI246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X12" sqref="X12"/>
+      <pane ySplit="2" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A159" sqref="A159:XFD159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16096,7 +16093,7 @@
       </c>
       <c r="F136" s="15"/>
       <c r="G136" s="21" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H136" s="15"/>
       <c r="I136" s="15"/>
@@ -16142,7 +16139,7 @@
       </c>
       <c r="F137" s="15"/>
       <c r="G137" s="21" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H137" s="15"/>
       <c r="I137" s="15"/>
@@ -16184,10 +16181,10 @@
         <v>158</v>
       </c>
       <c r="E138" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G138" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="139" spans="1:32" x14ac:dyDescent="0.3">
@@ -16204,10 +16201,10 @@
         <v>158</v>
       </c>
       <c r="E139" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G139" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="140" spans="1:32" x14ac:dyDescent="0.3">
@@ -16224,10 +16221,10 @@
         <v>158</v>
       </c>
       <c r="E140" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G140" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="141" spans="1:32" x14ac:dyDescent="0.3">
@@ -16244,10 +16241,10 @@
         <v>158</v>
       </c>
       <c r="E141" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G141" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="142" spans="1:32" x14ac:dyDescent="0.3">
@@ -16264,10 +16261,10 @@
         <v>158</v>
       </c>
       <c r="E142" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G142" s="15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="143" spans="1:32" x14ac:dyDescent="0.3">
@@ -16284,10 +16281,10 @@
         <v>158</v>
       </c>
       <c r="E143" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G143" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="144" spans="1:32" x14ac:dyDescent="0.3">
@@ -16304,10 +16301,10 @@
         <v>158</v>
       </c>
       <c r="E144" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G144" s="15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
@@ -16324,10 +16321,10 @@
         <v>158</v>
       </c>
       <c r="E145" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G145" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
@@ -16344,10 +16341,10 @@
         <v>158</v>
       </c>
       <c r="E146" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G146" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
@@ -16364,10 +16361,10 @@
         <v>158</v>
       </c>
       <c r="E147" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G147" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
@@ -16384,10 +16381,10 @@
         <v>158</v>
       </c>
       <c r="E148" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G148" s="15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
@@ -16404,10 +16401,10 @@
         <v>158</v>
       </c>
       <c r="E149" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G149" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
@@ -16424,10 +16421,10 @@
         <v>158</v>
       </c>
       <c r="E150" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G150" s="15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
@@ -16444,10 +16441,10 @@
         <v>158</v>
       </c>
       <c r="E151" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G151" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
@@ -16464,10 +16461,10 @@
         <v>158</v>
       </c>
       <c r="E152" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G152" s="15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
@@ -16484,10 +16481,10 @@
         <v>158</v>
       </c>
       <c r="E153" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G153" s="15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
@@ -16504,11 +16501,11 @@
         <v>158</v>
       </c>
       <c r="E154" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F154" s="18"/>
       <c r="G154" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
@@ -16525,11 +16522,11 @@
         <v>158</v>
       </c>
       <c r="E155" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F155" s="18"/>
       <c r="G155" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="156" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -16567,7 +16564,7 @@
         <v>158</v>
       </c>
       <c r="E157" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F157" s="18"/>
       <c r="G157" s="20" t="s">
@@ -16588,7 +16585,7 @@
         <v>158</v>
       </c>
       <c r="E158" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F158" s="18"/>
       <c r="G158" s="20" t="s">
@@ -16597,19 +16594,19 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="14">
-        <v>711719418672</v>
+        <v>5030917120442</v>
       </c>
       <c r="B159" s="6">
-        <v>2004020267092</v>
+        <v>2004020270044</v>
       </c>
       <c r="C159" s="14">
-        <v>711719418672</v>
+        <v>5030917120442</v>
       </c>
       <c r="D159" s="18" t="s">
         <v>158</v>
       </c>
       <c r="E159" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F159" s="18"/>
       <c r="G159" s="20" t="s">
@@ -16618,19 +16615,19 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="14">
-        <v>5030917120442</v>
+        <v>4020628781934</v>
       </c>
       <c r="B160" s="6">
-        <v>2004020270044</v>
+        <v>2004020266925</v>
       </c>
       <c r="C160" s="14">
-        <v>5030917120442</v>
+        <v>4020628781934</v>
       </c>
       <c r="D160" s="18" t="s">
         <v>158</v>
       </c>
       <c r="E160" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F160" s="18"/>
       <c r="G160" s="20" t="s">
@@ -16639,19 +16636,19 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="14">
-        <v>4020628781934</v>
+        <v>4020628785611</v>
       </c>
       <c r="B161" s="6">
-        <v>2004020266925</v>
+        <v>2004020265456</v>
       </c>
       <c r="C161" s="14">
-        <v>4020628781934</v>
+        <v>4020628785611</v>
       </c>
       <c r="D161" s="18" t="s">
         <v>158</v>
       </c>
       <c r="E161" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F161" s="18"/>
       <c r="G161" s="20" t="s">
@@ -16660,40 +16657,40 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="14">
-        <v>4020628785611</v>
+        <v>5030917242281</v>
       </c>
       <c r="B162" s="6">
-        <v>2004020265456</v>
+        <v>2004020270706</v>
       </c>
       <c r="C162" s="14">
-        <v>4020628785611</v>
+        <v>5030917242281</v>
       </c>
       <c r="D162" s="18" t="s">
         <v>158</v>
       </c>
       <c r="E162" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F162" s="18"/>
-      <c r="G162" s="20" t="s">
+      <c r="G162" s="17" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="14">
-        <v>5030917242281</v>
-      </c>
-      <c r="B163" s="6">
-        <v>2004020270706</v>
+        <v>8590548617300</v>
+      </c>
+      <c r="B163" s="18">
+        <v>2004020265458</v>
       </c>
       <c r="C163" s="14">
-        <v>5030917242281</v>
+        <v>8590548617300</v>
       </c>
       <c r="D163" s="18" t="s">
-        <v>158</v>
+        <v>8</v>
       </c>
       <c r="E163" s="15" t="s">
-        <v>392</v>
+        <v>45</v>
       </c>
       <c r="F163" s="18"/>
       <c r="G163" s="17" t="s">
@@ -16702,13 +16699,13 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="14">
-        <v>8590548617300</v>
+        <v>8590548617379</v>
       </c>
       <c r="B164" s="18">
-        <v>2004020265458</v>
+        <v>2004020265441</v>
       </c>
       <c r="C164" s="14">
-        <v>8590548617300</v>
+        <v>8590548617379</v>
       </c>
       <c r="D164" s="18" t="s">
         <v>8</v>
@@ -16723,19 +16720,19 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="14">
-        <v>8590548617379</v>
+        <v>5999886114718</v>
       </c>
       <c r="B165" s="18">
-        <v>2004020265441</v>
+        <v>2004020269757</v>
       </c>
       <c r="C165" s="14">
-        <v>8590548617379</v>
+        <v>5999886114718</v>
       </c>
       <c r="D165" s="18" t="s">
-        <v>8</v>
+        <v>158</v>
       </c>
       <c r="E165" s="15" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F165" s="18"/>
       <c r="G165" s="17" t="s">
@@ -16744,13 +16741,13 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="14">
-        <v>5999886114718</v>
+        <v>5999886114800</v>
       </c>
       <c r="B166" s="18">
-        <v>2004020269757</v>
+        <v>2004020269762</v>
       </c>
       <c r="C166" s="14">
-        <v>5999886114718</v>
+        <v>5999886114800</v>
       </c>
       <c r="D166" s="18" t="s">
         <v>158</v>
@@ -16758,20 +16755,20 @@
       <c r="E166" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F166" s="18"/>
+      <c r="F166" s="19"/>
       <c r="G166" s="17" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="14">
-        <v>5999886114800</v>
+        <v>5999886114817</v>
       </c>
       <c r="B167" s="18">
-        <v>2004020269762</v>
+        <v>2004020269763</v>
       </c>
       <c r="C167" s="14">
-        <v>5999886114800</v>
+        <v>5999886114817</v>
       </c>
       <c r="D167" s="18" t="s">
         <v>158</v>
@@ -16786,13 +16783,13 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="14">
-        <v>5999886114817</v>
+        <v>5999886114848</v>
       </c>
       <c r="B168" s="18">
-        <v>2004020269763</v>
+        <v>2004020269766</v>
       </c>
       <c r="C168" s="14">
-        <v>5999886114817</v>
+        <v>5999886114848</v>
       </c>
       <c r="D168" s="18" t="s">
         <v>158</v>
@@ -16807,13 +16804,13 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="14">
-        <v>5999886114848</v>
+        <v>5999886114831</v>
       </c>
       <c r="B169" s="18">
-        <v>2004020269766</v>
+        <v>2004020269765</v>
       </c>
       <c r="C169" s="14">
-        <v>5999886114848</v>
+        <v>5999886114831</v>
       </c>
       <c r="D169" s="18" t="s">
         <v>158</v>
@@ -16828,13 +16825,13 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="14">
-        <v>5999886114831</v>
+        <v>5999886114794</v>
       </c>
       <c r="B170" s="18">
-        <v>2004020269765</v>
+        <v>2004020269761</v>
       </c>
       <c r="C170" s="14">
-        <v>5999886114831</v>
+        <v>5999886114794</v>
       </c>
       <c r="D170" s="18" t="s">
         <v>158</v>
@@ -16848,41 +16845,42 @@
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A171" s="14">
-        <v>5999886114794</v>
+      <c r="A171" s="19">
+        <v>5996471003648</v>
       </c>
       <c r="B171" s="18">
-        <v>2004020269761</v>
-      </c>
-      <c r="C171" s="14">
-        <v>5999886114794</v>
+        <v>2004020270618</v>
+      </c>
+      <c r="C171" s="19">
+        <v>5996471003648</v>
       </c>
       <c r="D171" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="E171" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F171" s="19"/>
-      <c r="G171" s="17" t="s">
-        <v>373</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E171" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="F171" s="18"/>
+      <c r="G171" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="H171" s="17"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="19">
-        <v>5996471003648</v>
+        <v>5996471003631</v>
       </c>
       <c r="B172" s="18">
-        <v>2004020270618</v>
+        <v>2004020270619</v>
       </c>
       <c r="C172" s="19">
-        <v>5996471003648</v>
+        <v>5996471003631</v>
       </c>
       <c r="D172" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E172" s="17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F172" s="18"/>
       <c r="G172" s="18" t="s">
@@ -16890,85 +16888,85 @@
       </c>
       <c r="H172" s="17"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A173" s="19">
-        <v>5996471003631</v>
-      </c>
-      <c r="B173" s="18">
-        <v>2004020270619</v>
-      </c>
-      <c r="C173" s="19">
-        <v>5996471003631</v>
-      </c>
-      <c r="D173" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E173" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="F173" s="18"/>
-      <c r="G173" s="18" t="s">
+    <row r="173" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="16">
+        <v>5996471003617</v>
+      </c>
+      <c r="B173" s="11">
+        <v>2004020270620</v>
+      </c>
+      <c r="C173" s="16">
+        <v>5996471003617</v>
+      </c>
+      <c r="D173" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E173" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="F173" s="11"/>
+      <c r="G173" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="H173" s="17"/>
-    </row>
-    <row r="174" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="16">
-        <v>5996471003617</v>
-      </c>
-      <c r="B174" s="11">
-        <v>2004020270620</v>
-      </c>
-      <c r="C174" s="16">
-        <v>5996471003617</v>
-      </c>
-      <c r="D174" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E174" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="F174" s="11"/>
-      <c r="G174" s="11" t="s">
-        <v>396</v>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A174" s="28">
+        <v>5999016371509</v>
+      </c>
+      <c r="B174" s="26">
+        <v>2004020272601</v>
+      </c>
+      <c r="C174" s="28">
+        <v>5999016371509</v>
+      </c>
+      <c r="D174" t="s">
+        <v>8</v>
+      </c>
+      <c r="E174" t="s">
+        <v>471</v>
+      </c>
+      <c r="F174" s="19"/>
+      <c r="G174" s="25" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="28">
-        <v>5999016371509</v>
+        <v>5996473013126</v>
       </c>
       <c r="B175" s="26">
-        <v>2004020272601</v>
+        <v>2004020272602</v>
       </c>
       <c r="C175" s="28">
-        <v>5999016371509</v>
+        <v>5996473013126</v>
       </c>
       <c r="D175" t="s">
         <v>8</v>
       </c>
-      <c r="E175" t="s">
-        <v>472</v>
+      <c r="E175" s="27" t="s">
+        <v>471</v>
       </c>
       <c r="F175" s="19"/>
       <c r="G175" s="25" t="s">
         <v>399</v>
       </c>
+      <c r="H175" s="27"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="28">
-        <v>5996473013126</v>
+        <v>5999519413171</v>
       </c>
       <c r="B176" s="26">
-        <v>2004020272602</v>
+        <v>2004020272603</v>
       </c>
       <c r="C176" s="28">
-        <v>5996473013126</v>
+        <v>5999519413171</v>
       </c>
       <c r="D176" t="s">
         <v>8</v>
       </c>
       <c r="E176" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F176" s="19"/>
       <c r="G176" s="25" t="s">
@@ -16978,19 +16976,19 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="28">
-        <v>5999519413171</v>
+        <v>5996473012655</v>
       </c>
       <c r="B177" s="26">
-        <v>2004020272603</v>
+        <v>2004020272604</v>
       </c>
       <c r="C177" s="28">
-        <v>5999519413171</v>
+        <v>5996473012655</v>
       </c>
       <c r="D177" t="s">
         <v>8</v>
       </c>
       <c r="E177" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F177" s="19"/>
       <c r="G177" s="25" t="s">
@@ -17000,19 +16998,19 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="28">
-        <v>5996473012655</v>
+        <v>5999016375248</v>
       </c>
       <c r="B178" s="26">
-        <v>2004020272604</v>
+        <v>2004020272605</v>
       </c>
       <c r="C178" s="28">
-        <v>5996473012655</v>
+        <v>5999016375248</v>
       </c>
       <c r="D178" t="s">
         <v>8</v>
       </c>
       <c r="E178" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F178" s="19"/>
       <c r="G178" s="25" t="s">
@@ -17022,19 +17020,19 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="28">
-        <v>5999016375248</v>
+        <v>5999554190761</v>
       </c>
       <c r="B179" s="26">
-        <v>2004020272605</v>
+        <v>2004020272606</v>
       </c>
       <c r="C179" s="28">
-        <v>5999016375248</v>
+        <v>5999554190761</v>
       </c>
       <c r="D179" t="s">
         <v>8</v>
       </c>
       <c r="E179" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F179" s="19"/>
       <c r="G179" s="25" t="s">
@@ -17044,19 +17042,19 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="28">
-        <v>5999554190761</v>
+        <v>5996473013782</v>
       </c>
       <c r="B180" s="26">
-        <v>2004020272606</v>
+        <v>2004020272607</v>
       </c>
       <c r="C180" s="28">
-        <v>5999554190761</v>
+        <v>5996473013782</v>
       </c>
       <c r="D180" t="s">
         <v>8</v>
       </c>
       <c r="E180" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F180" s="19"/>
       <c r="G180" s="25" t="s">
@@ -17066,19 +17064,19 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="28">
-        <v>5996473013782</v>
+        <v>5996473011450</v>
       </c>
       <c r="B181" s="26">
-        <v>2004020272607</v>
+        <v>2004020272609</v>
       </c>
       <c r="C181" s="28">
-        <v>5996473013782</v>
+        <v>5996473011450</v>
       </c>
       <c r="D181" t="s">
         <v>8</v>
       </c>
       <c r="E181" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F181" s="19"/>
       <c r="G181" s="25" t="s">
@@ -17088,19 +17086,19 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="28">
-        <v>5996473011450</v>
+        <v>5996473003387</v>
       </c>
       <c r="B182" s="26">
-        <v>2004020272609</v>
+        <v>2004020272611</v>
       </c>
       <c r="C182" s="28">
-        <v>5996473011450</v>
+        <v>5996473003387</v>
       </c>
       <c r="D182" t="s">
         <v>8</v>
       </c>
       <c r="E182" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F182" s="19"/>
       <c r="G182" s="25" t="s">
@@ -17110,19 +17108,19 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="28">
-        <v>5996473003387</v>
+        <v>5999883048511</v>
       </c>
       <c r="B183" s="26">
-        <v>2004020272611</v>
+        <v>2004020272615</v>
       </c>
       <c r="C183" s="28">
-        <v>5996473003387</v>
+        <v>5999883048511</v>
       </c>
       <c r="D183" t="s">
         <v>8</v>
       </c>
       <c r="E183" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F183" s="19"/>
       <c r="G183" s="25" t="s">
@@ -17132,19 +17130,19 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="28">
-        <v>5999883048511</v>
+        <v>5999883048528</v>
       </c>
       <c r="B184" s="26">
-        <v>2004020272615</v>
+        <v>2004020272616</v>
       </c>
       <c r="C184" s="28">
-        <v>5999883048511</v>
+        <v>5999883048528</v>
       </c>
       <c r="D184" t="s">
         <v>8</v>
       </c>
       <c r="E184" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F184" s="19"/>
       <c r="G184" s="25" t="s">
@@ -17154,21 +17152,20 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="28">
-        <v>5999883048528</v>
+        <v>5999553600339</v>
       </c>
       <c r="B185" s="26">
-        <v>2004020272616</v>
+        <v>2004020272618</v>
       </c>
       <c r="C185" s="28">
-        <v>5999883048528</v>
+        <v>5999553600339</v>
       </c>
       <c r="D185" t="s">
         <v>8</v>
       </c>
       <c r="E185" s="27" t="s">
-        <v>472</v>
-      </c>
-      <c r="F185" s="19"/>
+        <v>471</v>
+      </c>
       <c r="G185" s="25" t="s">
         <v>409</v>
       </c>
@@ -17176,19 +17173,19 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="28">
-        <v>5999553600339</v>
+        <v>5996473009150</v>
       </c>
       <c r="B186" s="26">
-        <v>2004020272618</v>
+        <v>2004020272619</v>
       </c>
       <c r="C186" s="28">
-        <v>5999553600339</v>
+        <v>5996473009150</v>
       </c>
       <c r="D186" t="s">
         <v>8</v>
       </c>
       <c r="E186" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G186" s="25" t="s">
         <v>410</v>
@@ -17197,19 +17194,19 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="28">
-        <v>5996473009150</v>
+        <v>5999016371059</v>
       </c>
       <c r="B187" s="26">
-        <v>2004020272619</v>
+        <v>2004020272621</v>
       </c>
       <c r="C187" s="28">
-        <v>5996473009150</v>
+        <v>5999016371059</v>
       </c>
       <c r="D187" t="s">
         <v>8</v>
       </c>
       <c r="E187" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G187" s="25" t="s">
         <v>411</v>
@@ -17218,19 +17215,19 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="28">
-        <v>5999016371059</v>
+        <v>5998329507780</v>
       </c>
       <c r="B188" s="26">
-        <v>2004020272621</v>
+        <v>2004020272623</v>
       </c>
       <c r="C188" s="28">
-        <v>5999016371059</v>
+        <v>5998329507780</v>
       </c>
       <c r="D188" t="s">
         <v>8</v>
       </c>
       <c r="E188" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G188" s="25" t="s">
         <v>412</v>
@@ -17239,19 +17236,19 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="28">
-        <v>5998329507780</v>
+        <v>5996473006876</v>
       </c>
       <c r="B189" s="26">
-        <v>2004020272623</v>
+        <v>2004020272624</v>
       </c>
       <c r="C189" s="28">
-        <v>5998329507780</v>
+        <v>5996473006876</v>
       </c>
       <c r="D189" t="s">
         <v>8</v>
       </c>
       <c r="E189" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G189" s="25" t="s">
         <v>413</v>
@@ -17260,19 +17257,19 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="28">
-        <v>5996473006876</v>
+        <v>5999551920019</v>
       </c>
       <c r="B190" s="26">
-        <v>2004020272624</v>
+        <v>2004020272625</v>
       </c>
       <c r="C190" s="28">
-        <v>5996473006876</v>
+        <v>5999551920019</v>
       </c>
       <c r="D190" t="s">
         <v>8</v>
       </c>
       <c r="E190" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G190" s="25" t="s">
         <v>414</v>
@@ -17281,19 +17278,19 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="28">
-        <v>5999551920019</v>
+        <v>5996473014680</v>
       </c>
       <c r="B191" s="26">
-        <v>2004020272625</v>
+        <v>2004020272626</v>
       </c>
       <c r="C191" s="28">
-        <v>5999551920019</v>
+        <v>5996473014680</v>
       </c>
       <c r="D191" t="s">
         <v>8</v>
       </c>
       <c r="E191" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G191" s="25" t="s">
         <v>415</v>
@@ -17302,19 +17299,19 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="28">
-        <v>5996473014680</v>
+        <v>5996473014642</v>
       </c>
       <c r="B192" s="26">
-        <v>2004020272626</v>
+        <v>2004020272627</v>
       </c>
       <c r="C192" s="28">
-        <v>5996473014680</v>
+        <v>5996473014642</v>
       </c>
       <c r="D192" t="s">
         <v>8</v>
       </c>
       <c r="E192" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G192" s="25" t="s">
         <v>416</v>
@@ -17323,19 +17320,19 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="28">
-        <v>5996473014642</v>
+        <v>5999881068818</v>
       </c>
       <c r="B193" s="26">
-        <v>2004020272627</v>
+        <v>2004020272628</v>
       </c>
       <c r="C193" s="28">
-        <v>5996473014642</v>
+        <v>5999881068818</v>
       </c>
       <c r="D193" t="s">
         <v>8</v>
       </c>
       <c r="E193" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G193" s="25" t="s">
         <v>417</v>
@@ -17344,19 +17341,19 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="28">
-        <v>5999881068818</v>
+        <v>5999881068788</v>
       </c>
       <c r="B194" s="26">
-        <v>2004020272628</v>
+        <v>2004020272534</v>
       </c>
       <c r="C194" s="28">
-        <v>5999881068818</v>
+        <v>5999881068788</v>
       </c>
       <c r="D194" t="s">
         <v>8</v>
       </c>
       <c r="E194" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G194" s="25" t="s">
         <v>418</v>
@@ -17365,19 +17362,19 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="28">
-        <v>5999881068788</v>
+        <v>5999557441525</v>
       </c>
       <c r="B195" s="26">
-        <v>2004020272534</v>
+        <v>2004020272535</v>
       </c>
       <c r="C195" s="28">
-        <v>5999881068788</v>
+        <v>5999557441525</v>
       </c>
       <c r="D195" t="s">
         <v>8</v>
       </c>
       <c r="E195" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G195" s="25" t="s">
         <v>419</v>
@@ -17386,19 +17383,19 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="28">
-        <v>5999557441525</v>
+        <v>5999544560864</v>
       </c>
       <c r="B196" s="26">
-        <v>2004020272535</v>
+        <v>2004020272537</v>
       </c>
       <c r="C196" s="28">
-        <v>5999557441525</v>
+        <v>5999544560864</v>
       </c>
       <c r="D196" t="s">
         <v>8</v>
       </c>
       <c r="E196" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G196" s="25" t="s">
         <v>420</v>
@@ -17407,19 +17404,19 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="28">
-        <v>5999544560864</v>
+        <v>5999544560567</v>
       </c>
       <c r="B197" s="26">
-        <v>2004020272537</v>
+        <v>2004020272538</v>
       </c>
       <c r="C197" s="28">
-        <v>5999544560864</v>
+        <v>5999544560567</v>
       </c>
       <c r="D197" t="s">
         <v>8</v>
       </c>
       <c r="E197" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G197" s="25" t="s">
         <v>421</v>
@@ -17428,19 +17425,19 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="28">
-        <v>5999544560567</v>
+        <v>5999544560741</v>
       </c>
       <c r="B198" s="26">
-        <v>2004020272538</v>
+        <v>2004020272539</v>
       </c>
       <c r="C198" s="28">
-        <v>5999544560567</v>
+        <v>5999544560741</v>
       </c>
       <c r="D198" t="s">
         <v>8</v>
       </c>
       <c r="E198" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G198" s="25" t="s">
         <v>422</v>
@@ -17449,19 +17446,19 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="28">
-        <v>5999544560741</v>
+        <v>5999544560826</v>
       </c>
       <c r="B199" s="26">
-        <v>2004020272539</v>
+        <v>2004020272540</v>
       </c>
       <c r="C199" s="28">
-        <v>5999544560741</v>
+        <v>5999544560826</v>
       </c>
       <c r="D199" t="s">
         <v>8</v>
       </c>
       <c r="E199" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G199" s="25" t="s">
         <v>423</v>
@@ -17470,19 +17467,19 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="28">
-        <v>5999544560826</v>
+        <v>5999881066470</v>
       </c>
       <c r="B200" s="26">
-        <v>2004020272540</v>
+        <v>2004020272629</v>
       </c>
       <c r="C200" s="28">
-        <v>5999544560826</v>
+        <v>5999881066470</v>
       </c>
       <c r="D200" t="s">
         <v>8</v>
       </c>
       <c r="E200" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G200" s="25" t="s">
         <v>424</v>
@@ -17491,19 +17488,19 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="28">
-        <v>5999881066470</v>
+        <v>5996473008276</v>
       </c>
       <c r="B201" s="26">
-        <v>2004020272629</v>
+        <v>2004020272632</v>
       </c>
       <c r="C201" s="28">
-        <v>5999881066470</v>
+        <v>5996473008276</v>
       </c>
       <c r="D201" t="s">
         <v>8</v>
       </c>
       <c r="E201" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G201" s="25" t="s">
         <v>425</v>
@@ -17512,19 +17509,19 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="28">
-        <v>5996473008276</v>
+        <v>5999016387364</v>
       </c>
       <c r="B202" s="26">
-        <v>2004020272632</v>
+        <v>2004020272633</v>
       </c>
       <c r="C202" s="28">
-        <v>5996473008276</v>
+        <v>5999016387364</v>
       </c>
       <c r="D202" t="s">
         <v>8</v>
       </c>
       <c r="E202" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G202" s="25" t="s">
         <v>426</v>
@@ -17533,19 +17530,19 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="28">
-        <v>5999016387364</v>
+        <v>5999016387319</v>
       </c>
       <c r="B203" s="26">
-        <v>2004020272633</v>
+        <v>2004020272637</v>
       </c>
       <c r="C203" s="28">
-        <v>5999016387364</v>
+        <v>5999016387319</v>
       </c>
       <c r="D203" t="s">
         <v>8</v>
       </c>
       <c r="E203" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G203" s="25" t="s">
         <v>427</v>
@@ -17554,19 +17551,19 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="28">
-        <v>5999016387319</v>
+        <v>5996473009044</v>
       </c>
       <c r="B204" s="26">
-        <v>2004020272637</v>
+        <v>2004020272639</v>
       </c>
       <c r="C204" s="28">
-        <v>5999016387319</v>
+        <v>5996473009044</v>
       </c>
       <c r="D204" t="s">
         <v>8</v>
       </c>
       <c r="E204" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G204" s="25" t="s">
         <v>428</v>
@@ -17575,19 +17572,19 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="28">
-        <v>5996473009044</v>
+        <v>5996473015021</v>
       </c>
       <c r="B205" s="26">
-        <v>2004020272639</v>
+        <v>2004020272541</v>
       </c>
       <c r="C205" s="28">
-        <v>5996473009044</v>
+        <v>5996473015021</v>
       </c>
       <c r="D205" t="s">
         <v>8</v>
       </c>
       <c r="E205" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G205" s="25" t="s">
         <v>429</v>
@@ -17596,19 +17593,19 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="28">
-        <v>5996473015021</v>
+        <v>5999881067675</v>
       </c>
       <c r="B206" s="26">
-        <v>2004020272541</v>
+        <v>2004020272542</v>
       </c>
       <c r="C206" s="28">
-        <v>5996473015021</v>
+        <v>5999881067675</v>
       </c>
       <c r="D206" t="s">
         <v>8</v>
       </c>
       <c r="E206" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G206" s="25" t="s">
         <v>430</v>
@@ -17617,19 +17614,19 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="28">
-        <v>5999881067675</v>
+        <v>5999016374852</v>
       </c>
       <c r="B207" s="26">
-        <v>2004020272542</v>
+        <v>2004020272641</v>
       </c>
       <c r="C207" s="28">
-        <v>5999881067675</v>
+        <v>5999016374852</v>
       </c>
       <c r="D207" t="s">
         <v>8</v>
       </c>
       <c r="E207" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G207" s="25" t="s">
         <v>431</v>
@@ -17638,19 +17635,19 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="28">
-        <v>5999016374852</v>
+        <v>5999553601404</v>
       </c>
       <c r="B208" s="26">
-        <v>2004020272641</v>
+        <v>2004020272608</v>
       </c>
       <c r="C208" s="28">
-        <v>5999016374852</v>
+        <v>5999553601404</v>
       </c>
       <c r="D208" t="s">
         <v>8</v>
       </c>
       <c r="E208" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G208" s="25" t="s">
         <v>432</v>
@@ -17659,19 +17656,19 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="28">
-        <v>5999553601404</v>
+        <v>5996473005190</v>
       </c>
       <c r="B209" s="26">
-        <v>2004020272608</v>
+        <v>2004020272610</v>
       </c>
       <c r="C209" s="28">
-        <v>5999553601404</v>
+        <v>5996473005190</v>
       </c>
       <c r="D209" t="s">
         <v>8</v>
       </c>
       <c r="E209" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G209" s="25" t="s">
         <v>433</v>
@@ -17680,19 +17677,19 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="28">
-        <v>5996473005190</v>
+        <v>5996473000942</v>
       </c>
       <c r="B210" s="26">
-        <v>2004020272610</v>
+        <v>2004020272612</v>
       </c>
       <c r="C210" s="28">
-        <v>5996473005190</v>
+        <v>5996473000942</v>
       </c>
       <c r="D210" t="s">
         <v>8</v>
       </c>
       <c r="E210" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G210" s="25" t="s">
         <v>434</v>
@@ -17701,19 +17698,19 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="28">
-        <v>5996473000942</v>
+        <v>5999883047170</v>
       </c>
       <c r="B211" s="26">
-        <v>2004020272612</v>
+        <v>2004020272613</v>
       </c>
       <c r="C211" s="28">
-        <v>5996473000942</v>
+        <v>5999883047170</v>
       </c>
       <c r="D211" t="s">
         <v>8</v>
       </c>
       <c r="E211" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G211" s="25" t="s">
         <v>435</v>
@@ -17722,19 +17719,19 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="28">
-        <v>5999883047170</v>
+        <v>5999883048238</v>
       </c>
       <c r="B212" s="26">
-        <v>2004020272613</v>
+        <v>2004020272614</v>
       </c>
       <c r="C212" s="28">
-        <v>5999883047170</v>
+        <v>5999883048238</v>
       </c>
       <c r="D212" t="s">
         <v>8</v>
       </c>
       <c r="E212" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G212" s="25" t="s">
         <v>436</v>
@@ -17743,19 +17740,19 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="28">
-        <v>5999883048238</v>
+        <v>5999016371653</v>
       </c>
       <c r="B213" s="26">
-        <v>2004020272614</v>
+        <v>2004020272617</v>
       </c>
       <c r="C213" s="28">
-        <v>5999883048238</v>
+        <v>5999016371653</v>
       </c>
       <c r="D213" t="s">
         <v>8</v>
       </c>
       <c r="E213" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G213" s="25" t="s">
         <v>437</v>
@@ -17764,19 +17761,19 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="28">
-        <v>5999016371653</v>
+        <v>5999557441587</v>
       </c>
       <c r="B214" s="26">
-        <v>2004020272617</v>
+        <v>2004020272622</v>
       </c>
       <c r="C214" s="28">
-        <v>5999016371653</v>
+        <v>5999557441587</v>
       </c>
       <c r="D214" t="s">
         <v>8</v>
       </c>
       <c r="E214" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G214" s="25" t="s">
         <v>438</v>
@@ -17785,19 +17782,19 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="28">
-        <v>5999557441587</v>
+        <v>5999016373152</v>
       </c>
       <c r="B215" s="26">
-        <v>2004020272622</v>
+        <v>2004020272536</v>
       </c>
       <c r="C215" s="28">
-        <v>5999557441587</v>
+        <v>5999016373152</v>
       </c>
       <c r="D215" t="s">
         <v>8</v>
       </c>
       <c r="E215" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G215" s="25" t="s">
         <v>439</v>
@@ -17806,19 +17803,19 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="28">
-        <v>5999016373152</v>
+        <v>5999016371042</v>
       </c>
       <c r="B216" s="26">
-        <v>2004020272536</v>
+        <v>2004020272630</v>
       </c>
       <c r="C216" s="28">
-        <v>5999016373152</v>
+        <v>5999016371042</v>
       </c>
       <c r="D216" t="s">
         <v>8</v>
       </c>
       <c r="E216" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G216" s="25" t="s">
         <v>440</v>
@@ -17827,19 +17824,19 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="28">
-        <v>5999016371042</v>
+        <v>5999883049907</v>
       </c>
       <c r="B217" s="26">
-        <v>2004020272630</v>
+        <v>2004020272631</v>
       </c>
       <c r="C217" s="28">
-        <v>5999016371042</v>
+        <v>5999883049907</v>
       </c>
       <c r="D217" t="s">
         <v>8</v>
       </c>
       <c r="E217" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G217" s="25" t="s">
         <v>441</v>
@@ -17848,19 +17845,19 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="28">
-        <v>5999883049907</v>
+        <v>5996473009037</v>
       </c>
       <c r="B218" s="26">
-        <v>2004020272631</v>
+        <v>2004020272634</v>
       </c>
       <c r="C218" s="28">
-        <v>5999883049907</v>
+        <v>5996473009037</v>
       </c>
       <c r="D218" t="s">
         <v>8</v>
       </c>
       <c r="E218" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G218" s="25" t="s">
         <v>442</v>
@@ -17869,19 +17866,19 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="28">
-        <v>5996473009037</v>
+        <v>5996473011108</v>
       </c>
       <c r="B219" s="26">
-        <v>2004020272634</v>
+        <v>2004020272635</v>
       </c>
       <c r="C219" s="28">
-        <v>5996473009037</v>
+        <v>5996473011108</v>
       </c>
       <c r="D219" t="s">
         <v>8</v>
       </c>
       <c r="E219" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G219" s="25" t="s">
         <v>443</v>
@@ -17890,19 +17887,19 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="28">
-        <v>5996473011108</v>
+        <v>5996473014970</v>
       </c>
       <c r="B220" s="26">
-        <v>2004020272635</v>
+        <v>2004020272636</v>
       </c>
       <c r="C220" s="28">
-        <v>5996473011108</v>
+        <v>5996473014970</v>
       </c>
       <c r="D220" t="s">
         <v>8</v>
       </c>
       <c r="E220" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G220" s="25" t="s">
         <v>444</v>
@@ -17911,19 +17908,19 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="28">
-        <v>5996473014970</v>
+        <v>5999016387326</v>
       </c>
       <c r="B221" s="26">
-        <v>2004020272636</v>
+        <v>2004020272638</v>
       </c>
       <c r="C221" s="28">
-        <v>5996473014970</v>
+        <v>5999016387326</v>
       </c>
       <c r="D221" t="s">
         <v>8</v>
       </c>
       <c r="E221" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G221" s="25" t="s">
         <v>445</v>
@@ -17932,19 +17929,19 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="28">
-        <v>5999016387326</v>
+        <v>5996473015014</v>
       </c>
       <c r="B222" s="26">
-        <v>2004020272638</v>
+        <v>2004020272640</v>
       </c>
       <c r="C222" s="28">
-        <v>5999016387326</v>
+        <v>5996473015014</v>
       </c>
       <c r="D222" t="s">
         <v>8</v>
       </c>
       <c r="E222" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G222" s="25" t="s">
         <v>446</v>
@@ -17953,40 +17950,40 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="28">
-        <v>5996473015014</v>
-      </c>
-      <c r="B223" s="26">
-        <v>2004020272640</v>
+        <v>5999007197033</v>
+      </c>
+      <c r="B223" s="28">
+        <v>2004020272564</v>
       </c>
       <c r="C223" s="28">
-        <v>5996473015014</v>
-      </c>
-      <c r="D223" t="s">
-        <v>8</v>
+        <v>5999007197033</v>
+      </c>
+      <c r="D223" s="28" t="s">
+        <v>158</v>
       </c>
       <c r="E223" s="27" t="s">
         <v>472</v>
       </c>
-      <c r="G223" s="25" t="s">
+      <c r="G223" s="27" t="s">
         <v>447</v>
       </c>
       <c r="H223" s="27"/>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="28">
-        <v>5999007197033</v>
+        <v>5996471003662</v>
       </c>
       <c r="B224" s="28">
-        <v>2004020272564</v>
+        <v>2004020272588</v>
       </c>
       <c r="C224" s="28">
-        <v>5999007197033</v>
-      </c>
-      <c r="D224" s="28" t="s">
-        <v>158</v>
+        <v>5996471003662</v>
+      </c>
+      <c r="D224" s="27" t="s">
+        <v>8</v>
       </c>
       <c r="E224" s="27" t="s">
-        <v>473</v>
+        <v>392</v>
       </c>
       <c r="G224" s="27" t="s">
         <v>448</v>
@@ -17995,19 +17992,19 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="28">
-        <v>5996471003662</v>
+        <v>5996471003679</v>
       </c>
       <c r="B225" s="28">
-        <v>2004020272588</v>
+        <v>2004020272589</v>
       </c>
       <c r="C225" s="28">
-        <v>5996471003662</v>
+        <v>5996471003679</v>
       </c>
       <c r="D225" s="27" t="s">
         <v>8</v>
       </c>
       <c r="E225" s="27" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G225" s="27" t="s">
         <v>449</v>
@@ -18016,19 +18013,19 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="28">
-        <v>5996471003679</v>
+        <v>5996471003686</v>
       </c>
       <c r="B226" s="28">
-        <v>2004020272589</v>
+        <v>2004020272590</v>
       </c>
       <c r="C226" s="28">
-        <v>5996471003679</v>
+        <v>5996471003686</v>
       </c>
       <c r="D226" s="27" t="s">
         <v>8</v>
       </c>
       <c r="E226" s="27" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G226" s="27" t="s">
         <v>450</v>
@@ -18037,19 +18034,19 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="28">
-        <v>5996471003686</v>
+        <v>5996471003013</v>
       </c>
       <c r="B227" s="28">
-        <v>2004020272590</v>
+        <v>2004020272591</v>
       </c>
       <c r="C227" s="28">
-        <v>5996471003686</v>
+        <v>5996471003013</v>
       </c>
       <c r="D227" s="27" t="s">
         <v>8</v>
       </c>
       <c r="E227" s="27" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G227" s="27" t="s">
         <v>451</v>
@@ -18058,19 +18055,19 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="28">
-        <v>5996471003013</v>
+        <v>5996471003693</v>
       </c>
       <c r="B228" s="28">
-        <v>2004020272591</v>
+        <v>2004020272592</v>
       </c>
       <c r="C228" s="28">
-        <v>5996471003013</v>
+        <v>5996471003693</v>
       </c>
       <c r="D228" s="27" t="s">
         <v>8</v>
       </c>
       <c r="E228" s="27" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G228" s="27" t="s">
         <v>452</v>
@@ -18079,19 +18076,19 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="28">
-        <v>5996471003693</v>
+        <v>5996471003440</v>
       </c>
       <c r="B229" s="28">
-        <v>2004020272592</v>
+        <v>2004020272593</v>
       </c>
       <c r="C229" s="28">
-        <v>5996471003693</v>
+        <v>5996471003440</v>
       </c>
       <c r="D229" s="27" t="s">
         <v>8</v>
       </c>
       <c r="E229" s="27" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G229" s="27" t="s">
         <v>453</v>
@@ -18100,19 +18097,19 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="28">
-        <v>5996471003440</v>
+        <v>5996471003709</v>
       </c>
       <c r="B230" s="28">
-        <v>2004020272593</v>
+        <v>2004020272594</v>
       </c>
       <c r="C230" s="28">
-        <v>5996471003440</v>
+        <v>5996471003709</v>
       </c>
       <c r="D230" s="27" t="s">
         <v>8</v>
       </c>
       <c r="E230" s="27" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G230" s="27" t="s">
         <v>454</v>
@@ -18121,19 +18118,19 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="28">
-        <v>5996471003709</v>
+        <v>5996471002962</v>
       </c>
       <c r="B231" s="28">
-        <v>2004020272594</v>
+        <v>2004020272595</v>
       </c>
       <c r="C231" s="28">
-        <v>5996471003709</v>
+        <v>5996471002962</v>
       </c>
       <c r="D231" s="27" t="s">
         <v>8</v>
       </c>
       <c r="E231" s="27" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G231" s="27" t="s">
         <v>455</v>
@@ -18142,19 +18139,19 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="28">
-        <v>5996471002962</v>
+        <v>5996471003457</v>
       </c>
       <c r="B232" s="28">
-        <v>2004020272595</v>
+        <v>2004020272596</v>
       </c>
       <c r="C232" s="28">
-        <v>5996471002962</v>
+        <v>5996471003457</v>
       </c>
       <c r="D232" s="27" t="s">
         <v>8</v>
       </c>
       <c r="E232" s="27" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G232" s="27" t="s">
         <v>456</v>
@@ -18163,19 +18160,19 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="28">
-        <v>5996471003457</v>
+        <v>5996471003341</v>
       </c>
       <c r="B233" s="28">
-        <v>2004020272596</v>
+        <v>2004020272597</v>
       </c>
       <c r="C233" s="28">
-        <v>5996471003457</v>
+        <v>5996471003341</v>
       </c>
       <c r="D233" s="27" t="s">
         <v>8</v>
       </c>
       <c r="E233" s="27" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G233" s="27" t="s">
         <v>457</v>
@@ -18184,19 +18181,19 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="28">
-        <v>5996471003341</v>
+        <v>5996471003372</v>
       </c>
       <c r="B234" s="28">
-        <v>2004020272597</v>
+        <v>2004020272598</v>
       </c>
       <c r="C234" s="28">
-        <v>5996471003341</v>
+        <v>5996471003372</v>
       </c>
       <c r="D234" s="27" t="s">
         <v>8</v>
       </c>
       <c r="E234" s="27" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G234" s="27" t="s">
         <v>458</v>
@@ -18205,19 +18202,19 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="28">
-        <v>5996471003372</v>
+        <v>5996471003204</v>
       </c>
       <c r="B235" s="28">
-        <v>2004020272598</v>
+        <v>2004020272599</v>
       </c>
       <c r="C235" s="28">
-        <v>5996471003372</v>
+        <v>5996471003204</v>
       </c>
       <c r="D235" s="27" t="s">
         <v>8</v>
       </c>
       <c r="E235" s="27" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G235" s="27" t="s">
         <v>459</v>
@@ -18226,19 +18223,19 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="28">
-        <v>5996471003204</v>
+        <v>5996471002979</v>
       </c>
       <c r="B236" s="28">
-        <v>2004020272599</v>
+        <v>2004020272600</v>
       </c>
       <c r="C236" s="28">
-        <v>5996471003204</v>
+        <v>5996471002979</v>
       </c>
       <c r="D236" s="27" t="s">
         <v>8</v>
       </c>
       <c r="E236" s="27" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G236" s="27" t="s">
         <v>460</v>
@@ -18247,19 +18244,19 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="28">
-        <v>5996471002979</v>
+        <v>5999007197040</v>
       </c>
       <c r="B237" s="28">
-        <v>2004020272600</v>
+        <v>2004020272666</v>
       </c>
       <c r="C237" s="28">
-        <v>5996471002979</v>
-      </c>
-      <c r="D237" s="27" t="s">
-        <v>8</v>
+        <v>5999007197040</v>
+      </c>
+      <c r="D237" s="28" t="s">
+        <v>158</v>
       </c>
       <c r="E237" s="27" t="s">
-        <v>393</v>
+        <v>472</v>
       </c>
       <c r="G237" s="27" t="s">
         <v>461</v>
@@ -18268,19 +18265,19 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="28">
-        <v>5999007197040</v>
+        <v>5902115606786</v>
       </c>
       <c r="B238" s="28">
-        <v>2004020272666</v>
+        <v>2004020272569</v>
       </c>
       <c r="C238" s="28">
-        <v>5999007197040</v>
-      </c>
-      <c r="D238" s="28" t="s">
-        <v>158</v>
+        <v>5902115606786</v>
+      </c>
+      <c r="D238" s="27" t="s">
+        <v>8</v>
       </c>
       <c r="E238" s="27" t="s">
-        <v>473</v>
+        <v>49</v>
       </c>
       <c r="G238" s="27" t="s">
         <v>462</v>
@@ -18289,13 +18286,13 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="28">
-        <v>5902115606786</v>
+        <v>5902115606694</v>
       </c>
       <c r="B239" s="28">
-        <v>2004020272569</v>
+        <v>2004020272570</v>
       </c>
       <c r="C239" s="28">
-        <v>5902115606786</v>
+        <v>5902115606694</v>
       </c>
       <c r="D239" s="27" t="s">
         <v>8</v>
@@ -18310,13 +18307,13 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="28">
-        <v>5902115606694</v>
+        <v>5902115606731</v>
       </c>
       <c r="B240" s="28">
-        <v>2004020272570</v>
+        <v>2004020272572</v>
       </c>
       <c r="C240" s="28">
-        <v>5902115606694</v>
+        <v>5902115606731</v>
       </c>
       <c r="D240" s="27" t="s">
         <v>8</v>
@@ -18331,13 +18328,13 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="28">
-        <v>5902115606731</v>
+        <v>5902115606762</v>
       </c>
       <c r="B241" s="28">
-        <v>2004020272572</v>
+        <v>2004020272587</v>
       </c>
       <c r="C241" s="28">
-        <v>5902115606731</v>
+        <v>5902115606762</v>
       </c>
       <c r="D241" s="27" t="s">
         <v>8</v>
@@ -18352,13 +18349,13 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="28">
-        <v>5902115606762</v>
+        <v>5902115607615</v>
       </c>
       <c r="B242" s="28">
-        <v>2004020272587</v>
+        <v>2004020272573</v>
       </c>
       <c r="C242" s="28">
-        <v>5902115606762</v>
+        <v>5902115607615</v>
       </c>
       <c r="D242" s="27" t="s">
         <v>8</v>
@@ -18373,13 +18370,13 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="28">
-        <v>5902115607615</v>
+        <v>5996514051582</v>
       </c>
       <c r="B243" s="28">
-        <v>2004020272573</v>
+        <v>2004020269993</v>
       </c>
       <c r="C243" s="28">
-        <v>5902115607615</v>
+        <v>5996514051582</v>
       </c>
       <c r="D243" s="27" t="s">
         <v>8</v>
@@ -18394,13 +18391,13 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="28">
-        <v>5996514051582</v>
+        <v>5996514051865</v>
       </c>
       <c r="B244" s="28">
-        <v>2004020269993</v>
+        <v>2004020272555</v>
       </c>
       <c r="C244" s="28">
-        <v>5996514051582</v>
+        <v>5996514051865</v>
       </c>
       <c r="D244" s="27" t="s">
         <v>8</v>
@@ -18415,19 +18412,19 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="28">
-        <v>5996514051865</v>
+        <v>5996471003402</v>
       </c>
       <c r="B245" s="28">
-        <v>2004020272555</v>
+        <v>2004020272568</v>
       </c>
       <c r="C245" s="28">
-        <v>5996514051865</v>
+        <v>5996471003402</v>
       </c>
       <c r="D245" s="27" t="s">
         <v>8</v>
       </c>
       <c r="E245" s="27" t="s">
-        <v>49</v>
+        <v>392</v>
       </c>
       <c r="G245" s="27" t="s">
         <v>469</v>
@@ -18436,50 +18433,29 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="28">
-        <v>5996471003402</v>
+        <v>5999007197057</v>
       </c>
       <c r="B246" s="28">
-        <v>2004020272568</v>
+        <v>2004020272667</v>
       </c>
       <c r="C246" s="28">
-        <v>5996471003402</v>
-      </c>
-      <c r="D246" s="27" t="s">
-        <v>8</v>
+        <v>5999007197057</v>
+      </c>
+      <c r="D246" s="28" t="s">
+        <v>158</v>
       </c>
       <c r="E246" s="27" t="s">
-        <v>393</v>
+        <v>472</v>
       </c>
       <c r="G246" s="27" t="s">
         <v>470</v>
       </c>
       <c r="H246" s="27"/>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A247" s="28">
-        <v>5999007197057</v>
-      </c>
-      <c r="B247" s="28">
-        <v>2004020272667</v>
-      </c>
-      <c r="C247" s="28">
-        <v>5999007197057</v>
-      </c>
-      <c r="D247" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="E247" s="27" t="s">
-        <v>473</v>
-      </c>
-      <c r="G247" s="27" t="s">
-        <v>471</v>
-      </c>
-      <c r="H247" s="27"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:AI54" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W13 W17:W22 W25:W53 X172:X174 W175:W1048576 W56:W171" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W13 W17:W22 W25:W53 X171:X173 W174:W1048576 W56:W170" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>platform</formula1>
     </dataValidation>
   </dataValidations>
